--- a/3/2/1/En $ (PDBC) 1998 a 2021 - Anual.xlsx
+++ b/3/2/1/En $ (PDBC) 1998 a 2021 - Anual.xlsx
@@ -792,6 +792,9 @@
       <c r="D22">
         <v>2.64</v>
       </c>
+      <c r="E22">
+        <v>2.77</v>
+      </c>
       <c r="F22">
         <v>3.07</v>
       </c>
@@ -808,6 +811,9 @@
       </c>
       <c r="D23">
         <v>2.54</v>
+      </c>
+      <c r="F23">
+        <v>2.78</v>
       </c>
     </row>
     <row r="24" spans="1:6">
